--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913934.6551063249</v>
+        <v>-914370.9707807712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996851</v>
+        <v>218615.8834996852</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>9.018446680389765</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>187.0381466403508</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,13 +744,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.184879784648665</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>167.8475982566274</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.1304751876469</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.1716741434591</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>334.5305298209694</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>38.79764317823962</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.52460315385652</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1026,7 +1026,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,10 +1035,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>59.30041534779202</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.31882417064585</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>62.53892362052707</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>83.14939821559865</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>10.73334426343426</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1227,7 +1227,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>18.21103058878141</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.33210888672573</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>91.90264108518336</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>125.2040305762914</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>197.8811965812104</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0484892653209</v>
+        <v>243.3533463568064</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436308</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825894</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091657</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
         <v>160.4420255081129</v>
@@ -1430,13 +1430,13 @@
         <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="12">
@@ -1500,10 +1500,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U12" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250302</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C13" t="n">
-        <v>76.0253524279035</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.8844613534859</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673256</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374449</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007581</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821286</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>56.58694030642573</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.04254713067559</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>45.22667425428941</v>
       </c>
       <c r="D14" t="n">
         <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799212</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>318.1152213678984</v>
@@ -1622,7 +1622,7 @@
         <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436308</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091657</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.2208993912659</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X14" t="n">
-        <v>114.9265847242243</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>176.030621801413</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250302</v>
+        <v>89.82535758250307</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790356</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126139</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.0613910094477</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079548</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H16" t="n">
-        <v>28.14947892865757</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831525</v>
+        <v>50.86655653831531</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.9527062374449</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007581</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>118.2660686734186</v>
       </c>
       <c r="X16" t="n">
         <v>137.045482048545</v>
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349273</v>
       </c>
       <c r="T20" t="n">
         <v>55.986291663842</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>224.3372187935193</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>84.37298759326478</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2558,22 +2558,22 @@
         <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
         <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.695616754371</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
         <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.2597570679447</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176968</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
         <v>155.6572682542125</v>
@@ -2773,13 +2773,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
         <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
         <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.695616754371</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121407</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2880,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>118.781368784121</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176968</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
         <v>155.6572682542125</v>
@@ -3010,13 +3010,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
         <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="32">
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3588,7 +3588,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3885,7 +3885,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
         <v>160.0866360314548</v>
@@ -4062,7 +4062,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>638.4018530106316</v>
+        <v>1357.34866767785</v>
       </c>
       <c r="C2" t="n">
-        <v>629.2923109092278</v>
+        <v>975.4149090106569</v>
       </c>
       <c r="D2" t="n">
-        <v>629.2923109092278</v>
+        <v>975.4149090106569</v>
       </c>
       <c r="E2" t="n">
-        <v>234.5065910153347</v>
+        <v>975.4149090106569</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3958043659091</v>
+        <v>561.2637183208271</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3322218605011</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H2" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I2" t="n">
         <v>39.51502306929715</v>
@@ -4343,10 +4343,10 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
-        <v>1975.751153464857</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
         <v>1975.751153464857</v>
@@ -4355,25 +4355,25 @@
         <v>1975.751153464857</v>
       </c>
       <c r="S2" t="n">
-        <v>1788.522178095212</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T2" t="n">
-        <v>1788.522178095212</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="U2" t="n">
-        <v>1788.522178095212</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.522178095212</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="W2" t="n">
-        <v>1425.987247952813</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="X2" t="n">
-        <v>1425.987247952813</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1032.445392528651</v>
+        <v>1751.392207195869</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.8277835713412</v>
+        <v>643.071273651497</v>
       </c>
       <c r="C3" t="n">
-        <v>757.124110812296</v>
+        <v>481.3676008924517</v>
       </c>
       <c r="D3" t="n">
-        <v>618.285473802508</v>
+        <v>342.5289638826638</v>
       </c>
       <c r="E3" t="n">
-        <v>471.2574638593792</v>
+        <v>342.5289638826638</v>
       </c>
       <c r="F3" t="n">
-        <v>336.5636658092535</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G3" t="n">
         <v>207.8351658325381</v>
@@ -4407,52 +4407,52 @@
         <v>39.51502306929715</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929715</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="K3" t="n">
-        <v>269.0055756294858</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="L3" t="n">
-        <v>634.8274207996014</v>
+        <v>465.5910147725189</v>
       </c>
       <c r="M3" t="n">
-        <v>792.4568729224571</v>
+        <v>950.6243682827453</v>
       </c>
       <c r="N3" t="n">
-        <v>1281.455283405009</v>
+        <v>1123.683653619415</v>
       </c>
       <c r="O3" t="n">
-        <v>1673.65523418916</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q3" t="n">
         <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559803</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S3" t="n">
-        <v>1911.739733262178</v>
+        <v>1822.951666477598</v>
       </c>
       <c r="T3" t="n">
-        <v>1723.054629428163</v>
+        <v>1634.266562643583</v>
       </c>
       <c r="U3" t="n">
-        <v>1504.559837026474</v>
+        <v>1634.266562643583</v>
       </c>
       <c r="V3" t="n">
-        <v>1276.164214474808</v>
+        <v>1405.870940091917</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.164214474808</v>
+        <v>1164.555071325227</v>
       </c>
       <c r="X3" t="n">
-        <v>1078.247226352602</v>
+        <v>995.012042783179</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.247226352602</v>
+        <v>802.4907164327578</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="C4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="D4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="E4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="F4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I4" t="n">
         <v>39.51502306929715</v>
@@ -4513,25 +4513,25 @@
         <v>571.5742683152296</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>456.2493449379981</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
       <c r="V4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
       <c r="W4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
       <c r="X4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.3953151309084</v>
+        <v>223.070391753677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1219.674367898297</v>
+        <v>971.3682694584295</v>
       </c>
       <c r="C5" t="n">
-        <v>837.7406092311039</v>
+        <v>971.3682694584295</v>
       </c>
       <c r="D5" t="n">
-        <v>837.7406092311039</v>
+        <v>971.3682694584295</v>
       </c>
       <c r="E5" t="n">
-        <v>837.7406092311039</v>
+        <v>971.3682694584295</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5894185412743</v>
+        <v>961.2574828090039</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5258360358663</v>
+        <v>545.1534962631919</v>
       </c>
       <c r="H5" t="n">
-        <v>78.70456163317556</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I5" t="n">
         <v>39.51502306929715</v>
@@ -4592,25 +4592,25 @@
         <v>1975.751153464857</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464857</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.751153464857</v>
+        <v>1564.163231826223</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.751153464857</v>
+        <v>1309.277895540217</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.751153464857</v>
+        <v>1309.277895540217</v>
       </c>
       <c r="W5" t="n">
-        <v>1613.216223322459</v>
+        <v>1309.277895540217</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.216223322459</v>
+        <v>1309.277895540217</v>
       </c>
       <c r="Y5" t="n">
-        <v>1219.674367898297</v>
+        <v>1309.277895540217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587.0232002345612</v>
+        <v>715.7517002112766</v>
       </c>
       <c r="C6" t="n">
-        <v>425.3195274755158</v>
+        <v>554.0480274522313</v>
       </c>
       <c r="D6" t="n">
-        <v>286.4808904657279</v>
+        <v>415.2093904424433</v>
       </c>
       <c r="E6" t="n">
-        <v>139.4528805225991</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="F6" t="n">
-        <v>139.4528805225991</v>
+        <v>268.1813804993145</v>
       </c>
       <c r="G6" t="n">
         <v>139.4528805225991</v>
@@ -4644,13 +4644,13 @@
         <v>39.51502306929715</v>
       </c>
       <c r="J6" t="n">
-        <v>99.7691696024033</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K6" t="n">
-        <v>307.4235194122307</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="L6" t="n">
-        <v>307.4235194122307</v>
+        <v>405.3368682394128</v>
       </c>
       <c r="M6" t="n">
         <v>792.4568729224571</v>
@@ -4674,22 +4674,22 @@
         <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1763.167397572543</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="U6" t="n">
-        <v>1544.672605170854</v>
+        <v>1355.987501336839</v>
       </c>
       <c r="V6" t="n">
-        <v>1316.276982619187</v>
+        <v>1127.591878785173</v>
       </c>
       <c r="W6" t="n">
-        <v>1074.961113852497</v>
+        <v>1127.591878785173</v>
       </c>
       <c r="X6" t="n">
-        <v>877.044125730292</v>
+        <v>1067.692469342958</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.5227993798708</v>
+        <v>875.1711429925374</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.685552534596</v>
+        <v>209.1309926076169</v>
       </c>
       <c r="C7" t="n">
-        <v>124.685552534596</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="D7" t="n">
-        <v>124.685552534596</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="E7" t="n">
-        <v>124.685552534596</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="F7" t="n">
         <v>39.51502306929715</v>
@@ -4744,31 +4744,31 @@
         <v>571.5742683152296</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152296</v>
+        <v>533.0369269689186</v>
       </c>
       <c r="S7" t="n">
-        <v>357.8645057189171</v>
+        <v>469.8662970491943</v>
       </c>
       <c r="T7" t="n">
-        <v>124.685552534596</v>
+        <v>469.8662970491943</v>
       </c>
       <c r="U7" t="n">
-        <v>124.685552534596</v>
+        <v>469.8662970491943</v>
       </c>
       <c r="V7" t="n">
-        <v>124.685552534596</v>
+        <v>209.1309926076169</v>
       </c>
       <c r="W7" t="n">
-        <v>124.685552534596</v>
+        <v>209.1309926076169</v>
       </c>
       <c r="X7" t="n">
-        <v>124.685552534596</v>
+        <v>209.1309926076169</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.685552534596</v>
+        <v>209.1309926076169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1035.760148243987</v>
+        <v>1254.213192004034</v>
       </c>
       <c r="C8" t="n">
-        <v>653.8263895767948</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="D8" t="n">
-        <v>569.8370984499275</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.345543186168</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.345543186168</v>
+        <v>1648.256731522053</v>
       </c>
       <c r="Y8" t="n">
-        <v>1429.803687762007</v>
+        <v>1648.256731522053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821.3991591499413</v>
+        <v>839.7941395426498</v>
       </c>
       <c r="C9" t="n">
-        <v>659.695486390896</v>
+        <v>678.0904667836045</v>
       </c>
       <c r="D9" t="n">
-        <v>520.8568493811081</v>
+        <v>539.2518297738166</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>392.2238198306878</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>257.5300217805622</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>128.8015218038467</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,19 +4881,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
         <v>1799.116885784264</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2059.463200123875</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2059.463200123875</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2059.463200123875</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1840.968407722185</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V9" t="n">
-        <v>1612.572785170519</v>
+        <v>1471.548322781966</v>
       </c>
       <c r="W9" t="n">
-        <v>1371.256916403829</v>
+        <v>1230.232454015276</v>
       </c>
       <c r="X9" t="n">
-        <v>1173.339928281623</v>
+        <v>1032.315465893071</v>
       </c>
       <c r="Y9" t="n">
-        <v>980.8186019312022</v>
+        <v>839.7941395426498</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>134.8552066922935</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>134.8552066922935</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>134.8552066922935</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>134.8552066922935</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>134.8552066922935</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4999,13 +4999,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X10" t="n">
-        <v>447.614783593302</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.5796247855791</v>
+        <v>287.9270998645308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1784.695939232614</v>
+        <v>1427.35158683061</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.58486482303</v>
+        <v>1138.240512421027</v>
       </c>
       <c r="D11" t="n">
-        <v>1215.583584307863</v>
+        <v>858.2392319058591</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>858.2392319058591</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289652</v>
+        <v>536.9107254736385</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407623</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956806</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>123.0992186348914</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>454.2151035205568</v>
+        <v>545.1906163614394</v>
       </c>
       <c r="L11" t="n">
-        <v>893.0759894463856</v>
+        <v>984.0515022872682</v>
       </c>
       <c r="M11" t="n">
-        <v>1377.290668540356</v>
+        <v>1468.266181381239</v>
       </c>
       <c r="N11" t="n">
-        <v>1755.622027228072</v>
+        <v>1846.597540068954</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.469055120814</v>
+        <v>2230.303639723528</v>
       </c>
       <c r="P11" t="n">
-        <v>2460.60146441775</v>
+        <v>2458.460536179582</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104287</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2460.62742699225</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="U11" t="n">
-        <v>2298.564774963853</v>
+        <v>2261.43480406451</v>
       </c>
       <c r="V11" t="n">
-        <v>2054.408185117404</v>
+        <v>2017.278214218061</v>
       </c>
       <c r="W11" t="n">
-        <v>1784.695939232614</v>
+        <v>2017.278214218061</v>
       </c>
       <c r="X11" t="n">
-        <v>1784.695939232614</v>
+        <v>1728.070757997163</v>
       </c>
       <c r="Y11" t="n">
-        <v>1784.695939232614</v>
+        <v>1427.35158683061</v>
       </c>
     </row>
     <row r="12">
@@ -5148,7 +5148,7 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U12" t="n">
         <v>1949.982683436373</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4439206059134</v>
+        <v>424.9177903579402</v>
       </c>
       <c r="C13" t="n">
-        <v>117.6506353252028</v>
+        <v>348.1245050772296</v>
       </c>
       <c r="D13" t="n">
-        <v>117.6506353252028</v>
+        <v>287.8752961626013</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6506353252028</v>
+        <v>228.6889661815292</v>
       </c>
       <c r="F13" t="n">
-        <v>117.6506353252028</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6506353252028</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208574</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499911</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916674</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601518</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506348</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
       </c>
       <c r="P13" t="n">
-        <v>1161.126409956228</v>
+        <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
         <v>1214.331474543591</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076875</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501629</v>
+        <v>896.3890301501622</v>
       </c>
       <c r="U13" t="n">
-        <v>702.0214748968718</v>
+        <v>702.021474896871</v>
       </c>
       <c r="V13" t="n">
-        <v>534.1088547129035</v>
+        <v>702.021474896871</v>
       </c>
       <c r="W13" t="n">
-        <v>340.775137487912</v>
+        <v>702.021474896871</v>
       </c>
       <c r="X13" t="n">
-        <v>340.775137487912</v>
+        <v>644.8629493348249</v>
       </c>
       <c r="Y13" t="n">
-        <v>285.1766050326842</v>
+        <v>515.650474784711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1806.784463788626</v>
+        <v>1563.35689872681</v>
       </c>
       <c r="C14" t="n">
-        <v>1517.673389379042</v>
+        <v>1517.673389379043</v>
       </c>
       <c r="D14" t="n">
         <v>1237.672108863875</v>
       </c>
       <c r="E14" t="n">
-        <v>935.7090732275909</v>
+        <v>935.709073227591</v>
       </c>
       <c r="F14" t="n">
-        <v>614.3805667953703</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
         <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>203.9416620547987</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>535.0575469404641</v>
+        <v>444.0820340995826</v>
       </c>
       <c r="L14" t="n">
-        <v>973.9184328662931</v>
+        <v>882.9429200254115</v>
       </c>
       <c r="M14" t="n">
-        <v>1458.133111960264</v>
+        <v>1276.182086278499</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.464470647979</v>
+        <v>1654.513444966215</v>
       </c>
       <c r="O14" t="n">
-        <v>2232.444567961696</v>
+        <v>2050.493542279932</v>
       </c>
       <c r="P14" t="n">
-        <v>2460.601464417749</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q14" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2329.09116498087</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="U14" t="n">
-        <v>2167.028512952474</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="V14" t="n">
-        <v>1922.871923106024</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="W14" t="n">
-        <v>1922.871923106024</v>
+        <v>2153.785210208117</v>
       </c>
       <c r="X14" t="n">
-        <v>1806.784463788626</v>
+        <v>1864.57775398722</v>
       </c>
       <c r="Y14" t="n">
-        <v>1806.784463788626</v>
+        <v>1864.57775398722</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
         <v>348.1493171020421</v>
@@ -5352,13 +5352,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
         <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>207.0119159759931</v>
+        <v>374.2156848547358</v>
       </c>
       <c r="C16" t="n">
-        <v>207.0119159759931</v>
+        <v>297.4223995740251</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0119159759931</v>
+        <v>297.4223995740251</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0119159759931</v>
+        <v>238.236069592953</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0119159759931</v>
+        <v>178.5780988763391</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9148516014522</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017981</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.2140876649991</v>
+        <v>83.21408766499906</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505251</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916674</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601517</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506347</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
       </c>
       <c r="P16" t="n">
-        <v>1161.126409956228</v>
+        <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
         <v>1214.331474543591</v>
@@ -5461,25 +5461,25 @@
         <v>1214.331474543591</v>
       </c>
       <c r="S16" t="n">
-        <v>1093.444396204888</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="T16" t="n">
-        <v>953.0881272781756</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="U16" t="n">
-        <v>758.7205720248846</v>
+        <v>1019.963919290299</v>
       </c>
       <c r="V16" t="n">
-        <v>758.7205720248846</v>
+        <v>852.0512991063312</v>
       </c>
       <c r="W16" t="n">
-        <v>565.3868547998928</v>
+        <v>732.5906236786357</v>
       </c>
       <c r="X16" t="n">
-        <v>426.9570749528777</v>
+        <v>594.1608438316204</v>
       </c>
       <c r="Y16" t="n">
-        <v>297.7446004027639</v>
+        <v>464.9483692815065</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478544</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614935</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
         <v>469.4217245791957</v>
@@ -5522,19 +5522,19 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
         <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5555,10 +5555,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5577,13 +5577,13 @@
         <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G18" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
         <v>119.4829596720247</v>
@@ -5592,13 +5592,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5677,7 +5677,7 @@
         <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M19" t="n">
         <v>349.5242082962438</v>
@@ -5732,10 +5732,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5747,31 +5747,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J20" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810478</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659941</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.173075819082</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2232.444567961697</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.60146441775</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5780,13 +5780,13 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U20" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V20" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W20" t="n">
         <v>2028.08193847085</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L21" t="n">
         <v>706.6672186254962</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S21" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V21" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288226</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>98.61373453290794</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>199.2208139331674</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791955</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0485364810477</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>826.933909565994</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
-        <v>1384.640850310114</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.439983488862</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O23" t="n">
-        <v>2232.444567961696</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
-        <v>2460.601464417749</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S23" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040245</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449792</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351913</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920625</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419369</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652215</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6087,31 +6087,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211972</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535706</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185285</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208573</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208573</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672914</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L25" t="n">
-        <v>185.3119415069887</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M25" t="n">
-        <v>303.3054476345904</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>543.3258065570981</v>
       </c>
       <c r="P25" t="n">
         <v>629.3786802696717</v>
@@ -6178,19 +6178,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X25" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.737273613386</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413124</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G26" t="n">
         <v>308.4034476132565</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
         <v>62.68632565487433</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183883</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752426</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178476</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039155</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684952</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P26" t="n">
         <v>2873.969697313968</v>
@@ -6260,13 +6260,13 @@
         <v>2857.725051672344</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186042</v>
+        <v>2650.706453186041</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.132198661398</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.062733800648</v>
       </c>
       <c r="Y26" t="n">
         <v>1902.481553994243</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
         <v>641.4567763880852</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082703</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443966</v>
+        <v>76.92869443443961</v>
       </c>
       <c r="I28" t="n">
         <v>62.68632565487433</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487433</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K28" t="n">
-        <v>223.6649715724805</v>
+        <v>269.7454881223173</v>
       </c>
       <c r="L28" t="n">
-        <v>370.3525675225777</v>
+        <v>370.3525675225768</v>
       </c>
       <c r="M28" t="n">
-        <v>615.7205318231422</v>
+        <v>615.7205318231414</v>
       </c>
       <c r="N28" t="n">
-        <v>861.5173317457053</v>
+        <v>734.1428735727418</v>
       </c>
       <c r="O28" t="n">
-        <v>959.980978241395</v>
+        <v>959.9809782413943</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363646</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476986</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608305</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708637</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C29" t="n">
         <v>1386.425607044543</v>
@@ -6446,25 +6446,25 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133863</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413127</v>
+        <v>594.5467585413123</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132567</v>
+        <v>308.4034476132565</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
         <v>62.68632565487433</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183883</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L29" t="n">
         <v>1104.833989576297</v>
@@ -6473,10 +6473,10 @@
         <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.153430863027</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O29" t="n">
-        <v>2563.532473508823</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P29" t="n">
         <v>2873.969697313968</v>
@@ -6491,22 +6491,22 @@
         <v>3077.047982991826</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V29" t="n">
         <v>2650.706453186041</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.062733800648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994242</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>927.2864686968139</v>
+        <v>941.9990861569185</v>
       </c>
       <c r="C30" t="n">
-        <v>765.5827959377687</v>
+        <v>780.2954133978732</v>
       </c>
       <c r="D30" t="n">
-        <v>626.7441589279807</v>
+        <v>641.4567763880852</v>
       </c>
       <c r="E30" t="n">
-        <v>479.7161489848519</v>
+        <v>494.4287664449564</v>
       </c>
       <c r="F30" t="n">
         <v>359.7349683948307</v>
@@ -6564,28 +6564,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2506.835100492021</v>
+        <v>2521.547717952126</v>
       </c>
       <c r="S30" t="n">
-        <v>2354.035613504762</v>
+        <v>2368.748230964866</v>
       </c>
       <c r="T30" t="n">
-        <v>2165.350509670747</v>
+        <v>2180.063127130852</v>
       </c>
       <c r="U30" t="n">
-        <v>1946.855717269057</v>
+        <v>1961.568334729162</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.460094717391</v>
+        <v>1733.172712177496</v>
       </c>
       <c r="W30" t="n">
-        <v>1477.144225950701</v>
+        <v>1491.856843410806</v>
       </c>
       <c r="X30" t="n">
-        <v>1279.227237828496</v>
+        <v>1293.9398552886</v>
       </c>
       <c r="Y30" t="n">
-        <v>1086.705911478075</v>
+        <v>1101.418528938179</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082703</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443966</v>
+        <v>76.92869443443961</v>
       </c>
       <c r="I31" t="n">
         <v>62.68632565487433</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487433</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>223.6649715724805</v>
+        <v>292.1773302074741</v>
       </c>
       <c r="L31" t="n">
-        <v>451.6465091457028</v>
+        <v>392.7844096077337</v>
       </c>
       <c r="M31" t="n">
-        <v>615.7205318231422</v>
+        <v>638.1523739082983</v>
       </c>
       <c r="N31" t="n">
-        <v>861.5173317457054</v>
+        <v>861.5173317457046</v>
       </c>
       <c r="O31" t="n">
-        <v>1087.355436414358</v>
+        <v>959.9809782413943</v>
       </c>
       <c r="P31" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363646</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476986</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608305</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708637</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>538.1905678988583</v>
       </c>
       <c r="L32" t="n">
-        <v>991.0177204292718</v>
+        <v>1021.484110185687</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1550.131445640657</v>
       </c>
       <c r="N32" t="n">
-        <v>2033.40458377384</v>
+        <v>1928.462804328373</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.817337448557</v>
+        <v>2368.875558003089</v>
       </c>
       <c r="P32" t="n">
-        <v>2779.014208260193</v>
+        <v>2732.440623661025</v>
       </c>
       <c r="Q32" t="n">
-        <v>3008.854631148612</v>
+        <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148612</v>
@@ -6801,7 +6801,7 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2504.325867460119</v>
+        <v>2519.038484920224</v>
       </c>
       <c r="S33" t="n">
         <v>2366.238997932964</v>
@@ -6859,22 +6859,22 @@
         <v>60.17709262297225</v>
       </c>
       <c r="K34" t="n">
-        <v>93.78128036761566</v>
+        <v>229.1894495694981</v>
       </c>
       <c r="L34" t="n">
         <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>583.1982042992418</v>
+        <v>447.7900350973594</v>
       </c>
       <c r="N34" t="n">
-        <v>837.0287152507245</v>
+        <v>566.2123768469597</v>
       </c>
       <c r="O34" t="n">
-        <v>935.4923617464142</v>
+        <v>720.6510667647945</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6935,25 +6935,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160322</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
         <v>2555.033718104287</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
         <v>348.1493171020421</v>
@@ -7044,22 +7044,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7102,16 +7102,16 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7175,25 +7175,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961696</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
         <v>482.8431151521678</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7312,43 +7312,43 @@
         <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500836</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>98.03426197503404</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>198.6413413752936</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>316.6348475028953</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q40" t="n">
         <v>628.266068145054</v>
@@ -7409,22 +7409,22 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810482</v>
+        <v>643.5163109720804</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659944</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
         <v>2460.60146441775</v>
@@ -7512,25 +7512,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
         <v>1089.832877645391</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>163.2749745479474</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M44" t="n">
-        <v>1473.475434912829</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
         <v>482.8431151521678</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>65.54268635500831</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>65.91841943632379</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>65.91841943632379</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>64.805807311706</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>73.0724522219046</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912213</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912213</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437655</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440251</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>348.4115961716268</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>466.8339379212272</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>565.2975844169168</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>370.8458734565163</v>
       </c>
       <c r="P2" t="n">
-        <v>389.5300732727608</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,19 +8055,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>274.7055713726053</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339227</v>
+        <v>281.5224999936373</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8292,16 +8292,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>321.7480376614418</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>506.5142103222908</v>
       </c>
       <c r="N6" t="n">
         <v>600.6529294339227</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,13 +8538,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.416582875</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.2086467078059</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>101.0622086987108</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>76.69514290851458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T11" t="n">
-        <v>130.2208993912659</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586886</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548189</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126134</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944765</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079548</v>
+        <v>75.33609373079554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831525</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>80.45854174211932</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.87780267393708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.2086467078059</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>240.9932894111984</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825894</v>
+        <v>79.194569388259</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091663</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>171.3887969344643</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548873</v>
+        <v>297.7119794548874</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0253524279035</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548189</v>
+        <v>59.64671682548195</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126134</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944765</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.73498242482834</v>
+        <v>65.88446135348596</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673256</v>
+        <v>56.13210615673262</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821286</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>73.13431137932328</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.340006468883112e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.4136111908</v>
       </c>
       <c r="C2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="D2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.4136111908</v>
       </c>
       <c r="E2" t="n">
         <v>149999.7722938764</v>
@@ -26335,13 +26335,13 @@
         <v>172715.4136111907</v>
       </c>
       <c r="J2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111912</v>
       </c>
       <c r="K2" t="n">
-        <v>172715.4136111907</v>
+        <v>172715.4136111912</v>
       </c>
       <c r="L2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="M2" t="n">
         <v>172715.4136111907</v>
@@ -26372,13 +26372,13 @@
         <v>9743.038208746775</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757636</v>
+        <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193915</v>
+        <v>59387.68618193919</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>65879.57388207626</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.5093245656</v>
+        <v>23482.50932456558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>194229.03306035</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.0330603501</v>
+        <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
@@ -26433,7 +26433,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="H4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
       <c r="I4" t="n">
         <v>175623.1205402357</v>
@@ -26451,13 +26451,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560956</v>
+        <v>46561.98765560957</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26522,37 +26522,37 @@
         <v>-250702.5504324759</v>
       </c>
       <c r="C6" t="n">
-        <v>-85172.63698182505</v>
+        <v>-85172.636981825</v>
       </c>
       <c r="D6" t="n">
-        <v>-88369.41856776047</v>
+        <v>-88369.4185677605</v>
       </c>
       <c r="E6" t="n">
-        <v>-122134.7417728263</v>
+        <v>-122387.137787463</v>
       </c>
       <c r="F6" t="n">
-        <v>-14743.94069706265</v>
+        <v>-14996.33671169949</v>
       </c>
       <c r="G6" t="n">
         <v>-115098.2100036305</v>
       </c>
       <c r="H6" t="n">
+        <v>-55710.52382169128</v>
+      </c>
+      <c r="I6" t="n">
         <v>-55710.52382169134</v>
       </c>
-      <c r="I6" t="n">
-        <v>-55710.52382169131</v>
-      </c>
       <c r="J6" t="n">
-        <v>-272779.893662673</v>
+        <v>-272779.8936626725</v>
       </c>
       <c r="K6" t="n">
-        <v>-62111.41422042979</v>
+        <v>-62111.4142204293</v>
       </c>
       <c r="L6" t="n">
-        <v>-126598.1827276976</v>
+        <v>-126598.1827276975</v>
       </c>
       <c r="M6" t="n">
-        <v>-79193.03314625699</v>
+        <v>-79193.03314625693</v>
       </c>
       <c r="N6" t="n">
         <v>-55710.52382169131</v>
@@ -26561,7 +26561,7 @@
         <v>-99251.69272901502</v>
       </c>
       <c r="P6" t="n">
-        <v>-55710.5238216912</v>
+        <v>-55710.52382169125</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26799,16 +26799,16 @@
         <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="I4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="I4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
         <v>783.5790706859291</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742393</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>82.34946735259533</v>
       </c>
       <c r="M2" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570698</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742393</v>
+        <v>74.23460772742399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>369.0959744001309</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>224.9048000400031</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27439,13 +27439,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>147.0866123327384</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>28.09021998435597</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27549,13 +27549,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>14.10007595818158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>97.40099082689017</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>55.57257430186951</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27625,16 +27625,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>132.2913836250523</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.30064519959176</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>136.6374028931913</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,7 +27783,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>66.6370242538348</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>149.0337413498222</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>285.94632690945</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>367.4764948102873</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>80.72744828998754</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.85431732927794</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>50.85837286816489</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28071,13 +28071,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>103.7359088872866</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>81.65903375748292</v>
+        <v>79.49647998155541</v>
       </c>
       <c r="P11" t="n">
-        <v>91.894457415033</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="12">
@@ -28220,10 +28220,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U12" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J14" t="n">
-        <v>81.65903375748215</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>91.894457415033</v>
+        <v>81.65903375748334</v>
       </c>
       <c r="L14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M14" t="n">
-        <v>91.894457415033</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="C16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="D16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="E16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="F16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="G16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="H16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="I16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="J16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="K16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="L16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="M16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="N16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="O16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="P16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="R16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="S16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="T16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="U16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="V16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="W16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="X16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.894457415033</v>
+        <v>91.89445741503295</v>
       </c>
     </row>
     <row r="17">
@@ -28594,22 +28594,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28825,19 +28825,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327007</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327004</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>31.51240011197672</v>
       </c>
       <c r="N22" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29062,13 +29062,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>116.9787331327006</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>166.1290651424569</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R23" t="n">
         <v>89.73190363910518</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14.56549128550415</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29229,13 +29229,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>23.31756564084426</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29302,7 +29302,7 @@
         <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>83.11144176675884</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
         <v>128.6610688615786</v>
@@ -29314,7 +29314,7 @@
         <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176675856</v>
       </c>
       <c r="Q26" t="n">
         <v>128.6610688615786</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29454,22 +29454,22 @@
         <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615786</v>
+        <v>106.0026425129354</v>
       </c>
       <c r="L28" t="n">
-        <v>46.54597631296735</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>128.6610688615786</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>128.6610688615786</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>128.6610688615786</v>
@@ -29545,13 +29545,13 @@
         <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176675862</v>
       </c>
       <c r="O29" t="n">
         <v>128.6610688615786</v>
       </c>
       <c r="P29" t="n">
-        <v>83.11144176675856</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q29" t="n">
         <v>128.6610688615786</v>
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29691,25 +29691,25 @@
         <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K31" t="n">
         <v>128.6610688615786</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>128.6610688615786</v>
       </c>
-      <c r="M31" t="n">
-        <v>46.54597631296735</v>
-      </c>
       <c r="N31" t="n">
+        <v>106.0026425129353</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>128.6610688615786</v>
-      </c>
-      <c r="O31" t="n">
-        <v>128.6610688615786</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>38.15196793284785</v>
@@ -29773,7 +29773,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>30.77413106708602</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
@@ -29782,19 +29782,19 @@
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>77.81815591473054</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>56.5404479011566</v>
+      </c>
+      <c r="P34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="N34" t="n">
-        <v>136.7759284867499</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>18.38847996830881</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30247,25 +30247,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
-        <v>116.9787331327006</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,10 +30384,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>32.09772592801095</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30481,10 +30481,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="K41" t="n">
-        <v>116.978733132701</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,16 +30627,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>147.8207661206955</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>40.58157162934951</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>150.8684524612595</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30870,10 +30870,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68561682995369</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>183.8910766763958</v>
       </c>
       <c r="P2" t="n">
-        <v>201.6532642216042</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>159.2216688109654</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662144</v>
+        <v>174.807358925929</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>209.7518684947752</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>391.0303077606508</v>
       </c>
       <c r="N6" t="n">
         <v>493.9377883662144</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,13 +35258,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
         <v>334.4604897835004</v>
@@ -35416,22 +35416,22 @@
         <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585562</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>389.7444726189314</v>
+        <v>387.5819188430038</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927762</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.437791215064</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L13" t="n">
-        <v>193.5177699405477</v>
+        <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
         <v>211.0798171398832</v>
       </c>
       <c r="N13" t="n">
-        <v>211.5129844348314</v>
+        <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
         <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218515</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.3848360532454</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>334.4604897835004</v>
+        <v>324.2250661259508</v>
       </c>
       <c r="L14" t="n">
         <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585562</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
@@ -35662,10 +35662,10 @@
         <v>399.9798962764814</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.437791215064</v>
+        <v>32.43779121506395</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
-        <v>193.5177699405477</v>
+        <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
         <v>211.0798171398832</v>
       </c>
       <c r="N16" t="n">
-        <v>211.5129844348314</v>
+        <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
         <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218515</v>
+        <v>53.74248948218509</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044718</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M19" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36121,19 +36121,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011681</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>425.0641719941488</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>150.6977598368269</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36358,13 +36358,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>359.5447655011681</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>548.2819527058061</v>
@@ -36373,10 +36373,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117103</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>86.92209465916527</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.227101230046</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192298</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
         <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333495</v>
+        <v>313.5729533385295</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247339</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160963</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460669</v>
+        <v>139.9462664974237</v>
       </c>
       <c r="L28" t="n">
-        <v>148.169288838482</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864288</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813769</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352493</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P28" t="n">
         <v>192.2655978798996</v>
@@ -36832,28 +36832,28 @@
         <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.227101230046</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
         <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249278</v>
+        <v>465.2643293301078</v>
       </c>
       <c r="O29" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
-        <v>313.5729533385295</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247339</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160963</v>
       </c>
       <c r="K31" t="n">
         <v>162.6046928460669</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870932</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>165.7313360378176</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813769</v>
+        <v>225.6211695327337</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451035</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>273.3401634355534</v>
       </c>
       <c r="L32" t="n">
         <v>488.1752952392209</v>
@@ -37078,19 +37078,19 @@
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>308.2796674865015</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>47.04402484764475</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122646</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>255.9612882116002</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065483</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>155.9986766846815</v>
       </c>
       <c r="P34" t="n">
-        <v>81.99300898662982</v>
+        <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3648479675871</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
         <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>425.064171994149</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37680,10 +37680,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>151.7162529478093</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
@@ -37719,7 +37719,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5447655011685</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37795,7 +37795,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37923,16 +37923,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.05975216734729</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>113.3073739251128</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194199</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.379528364965125</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373937974</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910863</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>165.8709765548039</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
